--- a/biology/Biochimie/2'-O-Méthylation/2'-O-Méthylation.xlsx
+++ b/biology/Biochimie/2'-O-Méthylation/2'-O-Méthylation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2%27-O-M%C3%A9thylation</t>
+          <t>2'-O-Méthylation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La 2’-O-méthylation est une modification courante des ARN consistant à lier un groupe méthyle à l'hydroxyle 2’ d'un résidu du ribose d'un nucléoside, ce qui donne un groupe méthoxy –OCH3. Les nucléosides 2’-O-méthylés se rencontrent principalement dans l'ARN ribosomique et les petits ARN nucléaires et se situent dans les régions essentielles au fonctionnement des ribosomes et des splicéosomes[1]. Il a été proposé que la 2’-O-méthylation ait pu préfigurer l'ADN dans le monde à ARN à l'origine de la vie sur Terre[2].
-Il existe des méthodes de séquençage à haut débit pour cartographier les 2’-O-méthylations du ribose de l'ARN[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 2’-O-méthylation est une modification courante des ARN consistant à lier un groupe méthyle à l'hydroxyle 2’ d'un résidu du ribose d'un nucléoside, ce qui donne un groupe méthoxy –OCH3. Les nucléosides 2’-O-méthylés se rencontrent principalement dans l'ARN ribosomique et les petits ARN nucléaires et se situent dans les régions essentielles au fonctionnement des ribosomes et des splicéosomes. Il a été proposé que la 2’-O-méthylation ait pu préfigurer l'ADN dans le monde à ARN à l'origine de la vie sur Terre.
+Il existe des méthodes de séquençage à haut débit pour cartographier les 2’-O-méthylations du ribose de l'ARN.
 </t>
         </is>
       </c>
